--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/99/word_level_predictions_99.xlsx
@@ -502,210 +502,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G92" s="2" t="b">
@@ -5217,11 +5217,11 @@
         </is>
       </c>
       <c r="I92" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K92" s="2" t="b">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G93" s="2" t="b">
@@ -5269,11 +5269,11 @@
         </is>
       </c>
       <c r="I93" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K93" s="2" t="b">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G94" s="2" t="b">
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -15218,208 +15218,208 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
+      <c r="F285" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
+      <c r="A286" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="B286" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" t="n">
+      <c r="D286" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="E286" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="F286" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J286" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K286" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G286" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" t="b">
-        <v>1</v>
-      </c>
-      <c r="J286" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K286" t="b">
-        <v>1</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
+      <c r="F287" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>5</v>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>16</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" t="n">
+      <c r="D288" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E288" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
+      <c r="F288" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17038,364 +17038,364 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
+      <c r="A320" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B320" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
+      <c r="C320" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D320" t="n">
+      <c r="D320" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E320" t="inlineStr">
+      <c r="E320" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F320" t="inlineStr">
+      <c r="F320" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G320" t="b">
-        <v>1</v>
-      </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I320" t="b">
-        <v>1</v>
-      </c>
-      <c r="J320" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K320" t="b">
-        <v>1</v>
-      </c>
-      <c r="L320" t="inlineStr">
+      <c r="G320" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H320" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I320" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J320" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K320" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L320" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" s="2" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
+      <c r="F321" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G321" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I321" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K321" t="b">
-        <v>1</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="G321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E322" t="inlineStr">
+      <c r="E322" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
+      <c r="F322" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I322" t="b">
-        <v>1</v>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K322" t="b">
-        <v>1</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="G322" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E323" t="inlineStr">
+      <c r="E323" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
+      <c r="F323" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I323" t="b">
-        <v>1</v>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K323" t="b">
-        <v>1</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="G323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J323" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E324" t="inlineStr">
+      <c r="E324" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F324" t="inlineStr">
+      <c r="F324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E325" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D325" t="n">
-        <v>9</v>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>18</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F326" t="inlineStr">
+      <c r="F326" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/99/word_level_predictions_99.xlsx
@@ -502,210 +502,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G92" s="2" t="b">
@@ -5217,11 +5217,11 @@
         </is>
       </c>
       <c r="I92" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K92" s="2" t="b">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G93" s="2" t="b">
@@ -5269,11 +5269,11 @@
         </is>
       </c>
       <c r="I93" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K93" s="2" t="b">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G94" s="2" t="b">
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -15218,208 +15218,208 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>16</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>3</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
+      <c r="F285" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" t="n">
         <v>16</v>
       </c>
-      <c r="B286" s="2" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C286" s="2" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D286" s="2" t="n">
+      <c r="D286" t="n">
         <v>4</v>
       </c>
-      <c r="E286" s="2" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F286" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G286" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H286" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K286" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L286" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I286" t="b">
+        <v>1</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K286" t="b">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>16</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
+      <c r="D287" t="n">
         <v>5</v>
       </c>
-      <c r="E287" s="2" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F287" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>16</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
+      <c r="D288" t="n">
         <v>6</v>
       </c>
-      <c r="E288" s="2" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F288" s="2" t="inlineStr">
+      <c r="F288" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17038,364 +17038,364 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="n">
+      <c r="A320" t="n">
         <v>18</v>
       </c>
-      <c r="B320" s="2" t="inlineStr">
+      <c r="B320" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C320" s="2" t="inlineStr">
+      <c r="C320" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D320" s="2" t="n">
+      <c r="D320" t="n">
         <v>4</v>
       </c>
-      <c r="E320" s="2" t="inlineStr">
+      <c r="E320" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F320" s="2" t="inlineStr">
+      <c r="F320" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G320" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H320" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I320" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K320" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L320" s="2" t="inlineStr">
+      <c r="G320" t="b">
+        <v>1</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I320" t="b">
+        <v>1</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K320" t="b">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" t="n">
         <v>18</v>
       </c>
-      <c r="B321" s="2" t="inlineStr">
+      <c r="B321" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C321" s="2" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>unable</t>
         </is>
       </c>
-      <c r="D321" s="2" t="n">
+      <c r="D321" t="n">
         <v>5</v>
       </c>
-      <c r="E321" s="2" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F321" s="2" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G321" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L321" s="2" t="inlineStr">
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I321" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K321" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" t="n">
         <v>18</v>
       </c>
-      <c r="B322" s="2" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C322" s="2" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" s="2" t="n">
+      <c r="D322" t="n">
         <v>6</v>
       </c>
-      <c r="E322" s="2" t="inlineStr">
+      <c r="E322" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F322" s="2" t="inlineStr">
+      <c r="F322" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G322" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L322" s="2" t="inlineStr">
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K322" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" t="n">
         <v>18</v>
       </c>
-      <c r="B323" s="2" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C323" s="2" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D323" s="2" t="n">
+      <c r="D323" t="n">
         <v>7</v>
       </c>
-      <c r="E323" s="2" t="inlineStr">
+      <c r="E323" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F323" s="2" t="inlineStr">
+      <c r="F323" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G323" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L323" s="2" t="inlineStr">
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K323" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" t="n">
         <v>18</v>
       </c>
-      <c r="B324" s="2" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D324" s="2" t="n">
+      <c r="D324" t="n">
         <v>8</v>
       </c>
-      <c r="E324" s="2" t="inlineStr">
+      <c r="E324" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L324" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" t="n">
         <v>18</v>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
+      <c r="D325" t="n">
         <v>9</v>
       </c>
-      <c r="E325" s="2" t="inlineStr">
+      <c r="E325" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" t="n">
         <v>18</v>
       </c>
-      <c r="B326" s="2" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>automatically</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
+      <c r="D326" t="n">
         <v>10</v>
       </c>
-      <c r="E326" s="2" t="inlineStr">
+      <c r="E326" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F326" s="2" t="inlineStr">
+      <c r="F326" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
